--- a/code/spearman-outfiles/correlation_2021.04.25-06.24.37/correlation_2021.04.25-06.24.37.xlsx
+++ b/code/spearman-outfiles/correlation_2021.04.25-06.24.37/correlation_2021.04.25-06.24.37.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Research-Spring2021\code\spearman-outfiles\correlation_2021.04.25-06.24.37\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3827317-AEC4-4334-8D43-8D55CA1C19CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A253FCD-8826-414F-840D-A9288CFDF9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,9 +145,6 @@
     <t>ALAND_ATOTAL_ratio</t>
   </si>
   <si>
-    <t>deathRate</t>
-  </si>
-  <si>
     <t>month</t>
   </si>
   <si>
@@ -158,6 +155,9 @@
   </si>
   <si>
     <t>popuDensity_ATOTAL_km2</t>
+  </si>
+  <si>
+    <t>mortalityRate</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1043,7 @@
   <dimension ref="A1:AU46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="V37" sqref="V37"/>
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6654,7 +6654,7 @@
     </row>
     <row r="41" spans="1:47" ht="20.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41" s="5">
         <v>-0.160221683434316</v>
@@ -6794,7 +6794,7 @@
     </row>
     <row r="42" spans="1:47" ht="20.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="5">
         <v>-9.0040577638160396E-2</v>
@@ -6934,7 +6934,7 @@
     </row>
     <row r="43" spans="1:47" ht="20.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="5">
         <v>-8.8968471835435797E-2</v>
@@ -7074,7 +7074,7 @@
     </row>
     <row r="44" spans="1:47" ht="20.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="5">
         <v>0.104036977739796</v>
@@ -7214,7 +7214,7 @@
     </row>
     <row r="45" spans="1:47" ht="20.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="5">
         <v>0.11123118425322601</v>
@@ -7477,19 +7477,19 @@
         <v>40</v>
       </c>
       <c r="AP46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ46" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AQ46" s="4" t="s">
+      <c r="AR46" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AR46" s="4" t="s">
+      <c r="AS46" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AS46" s="4" t="s">
+      <c r="AT46" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="AT46" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="AU46" s="1"/>
     </row>
